--- a/Documents/results.xlsx
+++ b/Documents/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bnron\PycharmProjects\AI-FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\האחסון שלי\אקדמיה\האוניברסיטה העברית\קורסים\שנה ג\סמסטר ב\מבוא לבינה מלאכותית\מטלות\Final Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE554D90-4BAF-474E-B28E-8601531545F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925B5D57-A2C5-48CE-8B39-38544E2417CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3048" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Astar" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="avg" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">local!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">גיליון1!$A$1:$F$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="38">
   <si>
     <t>Data set</t>
   </si>
@@ -148,6 +149,15 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>Beam Search</t>
+  </si>
+  <si>
+    <t>Average Grade</t>
+  </si>
+  <si>
+    <t>Legal Result Ratio</t>
+  </si>
 </sst>
 </file>
 
@@ -466,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -531,13 +541,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,6 +558,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,22 +899,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC75BA4-E9C4-4F04-AA12-B23A0E27743F}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.37890625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.80859375" style="2"/>
-    <col min="4" max="4" width="10.09375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.80859375" style="2"/>
-    <col min="6" max="6" width="12.80859375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.80859375" style="2"/>
+    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="2"/>
+    <col min="4" max="4" width="10.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="6" width="12.796875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -923,7 +934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -943,7 +954,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -963,7 +974,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -983,7 +994,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1003,7 +1014,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1023,7 +1034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1063,7 +1074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1123,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1203,7 +1214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1243,7 +1254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1263,7 +1274,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +1314,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1323,7 +1334,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1343,7 +1354,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1363,7 +1374,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1403,7 +1414,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1434,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1443,7 +1454,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1463,7 +1474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1483,7 +1494,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1503,7 +1514,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1523,7 +1534,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1543,7 +1554,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1563,7 +1574,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1583,7 +1594,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1603,7 +1614,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1623,7 +1634,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1643,7 +1654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
@@ -1663,7 +1674,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +1694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
@@ -1703,7 +1714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
@@ -1723,7 +1734,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
@@ -1743,7 +1754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
@@ -1763,7 +1774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -1783,7 +1794,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>20</v>
       </c>
@@ -1803,7 +1814,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1823,7 +1834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -1843,7 +1854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -1863,7 +1874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -1883,7 +1894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1903,7 +1914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -1923,7 +1934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -1952,25 +1963,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F0CCF9-61D8-44BF-8CE9-C17F122C5534}">
-  <dimension ref="A1:H41"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.80859375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.90234375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.6171875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.90234375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.90234375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.80859375" style="2"/>
+    <col min="1" max="1" width="26.796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.796875" style="2"/>
+    <col min="13" max="13" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.8984375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1992,8 +2013,11 @@
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2015,10 +2039,15 @@
         <v>25</v>
       </c>
       <c r="G2" s="2">
+        <f>24</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="22">
+        <f>G2/100</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2042,8 +2071,12 @@
       <c r="G3" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" s="22">
+        <f t="shared" ref="H3:H37" si="0">G3/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -2067,8 +2100,12 @@
       <c r="G4" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="22">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -2092,8 +2129,12 @@
       <c r="G5" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2158,12 @@
       <c r="G6" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -2142,8 +2187,12 @@
       <c r="G7" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -2167,8 +2216,12 @@
       <c r="G8" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -2192,8 +2245,12 @@
       <c r="G9" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2217,8 +2274,12 @@
       <c r="G10" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2242,8 +2303,12 @@
       <c r="G11" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -2267,8 +2332,12 @@
       <c r="G12" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2361,12 @@
       <c r="G13" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -2317,8 +2390,12 @@
       <c r="G14" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2342,8 +2419,12 @@
       <c r="G15" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" s="22">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2367,8 +2448,12 @@
       <c r="G16" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2392,8 +2477,12 @@
       <c r="G17" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -2417,8 +2506,12 @@
       <c r="G18" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -2442,8 +2535,12 @@
       <c r="G19" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -2467,8 +2564,12 @@
       <c r="G20" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20" s="22">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -2492,8 +2593,12 @@
       <c r="G21" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21" s="22">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -2517,8 +2622,12 @@
       <c r="G22" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22" s="22">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -2542,8 +2651,12 @@
       <c r="G23" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23" s="22">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2567,8 +2680,12 @@
       <c r="G24" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H24" s="22">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -2592,8 +2709,12 @@
       <c r="G25" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25" s="22">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -2616,8 +2737,12 @@
       <c r="G26" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -2640,8 +2765,12 @@
       <c r="G27" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -2664,8 +2793,12 @@
       <c r="G28" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -2688,8 +2821,12 @@
       <c r="G29" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -2712,8 +2849,12 @@
       <c r="G30" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -2736,8 +2877,12 @@
       <c r="G31" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2760,8 +2905,12 @@
       <c r="G32" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2784,8 +2933,12 @@
       <c r="G33" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2808,8 +2961,12 @@
       <c r="G34" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
@@ -2832,8 +2989,12 @@
       <c r="G35" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
@@ -2856,8 +3017,12 @@
       <c r="G36" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
@@ -2880,8 +3045,12 @@
       <c r="G37" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -2898,7 +3067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -2915,7 +3084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -2932,7 +3101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -2949,7 +3118,230 @@
         <v>100</v>
       </c>
     </row>
+    <row r="45" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+    </row>
+    <row r="47" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H41" xr:uid="{45F0CCF9-61D8-44BF-8CE9-C17F122C5534}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Low"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2959,28 +3351,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21204C8-3B02-4F4C-A3C4-0DF983CD0D88}">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A46" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.37890625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.47265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.80859375" style="2"/>
-    <col min="9" max="9" width="8.80859375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.80859375" style="2"/>
-    <col min="12" max="12" width="5.37890625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.80859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.80859375" style="2"/>
+    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.796875" style="2"/>
+    <col min="9" max="9" width="8.796875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.796875" style="2"/>
+    <col min="12" max="12" width="5.3984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3004,7 +3396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3027,7 +3419,7 @@
         <v>79.17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3050,7 +3442,7 @@
         <v>79.36</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3073,7 +3465,7 @@
         <v>79.45</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3096,7 +3488,7 @@
         <v>74.64</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3119,7 +3511,7 @@
         <v>74.53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3142,7 +3534,7 @@
         <v>75.09</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3165,7 +3557,7 @@
         <v>79.02</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3188,7 +3580,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3211,7 +3603,7 @@
         <v>78.91</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3234,7 +3626,7 @@
         <v>76.66</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -3257,7 +3649,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -3280,7 +3672,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3303,7 +3695,7 @@
         <v>79.16</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3326,7 +3718,7 @@
         <v>79.319999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -3349,7 +3741,7 @@
         <v>79.03</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3372,7 +3764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -3395,7 +3787,7 @@
         <v>74.37</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -3418,7 +3810,7 @@
         <v>74.14</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -3441,7 +3833,7 @@
         <v>78.94</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -3464,7 +3856,7 @@
         <v>78.989999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -3487,7 +3879,7 @@
         <v>79.39</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3510,7 +3902,7 @@
         <v>76.59</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3533,7 +3925,7 @@
         <v>76.73</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -3556,7 +3948,7 @@
         <v>77.12</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3579,7 +3971,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3602,7 +3994,7 @@
         <v>77.510000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3625,7 +4017,7 @@
         <v>76.209999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -3648,7 +4040,7 @@
         <v>74.989999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -3671,7 +4063,7 @@
         <v>74.61</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -3694,7 +4086,7 @@
         <v>72.62</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -3717,7 +4109,7 @@
         <v>79.510000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -3740,7 +4132,7 @@
         <v>79.38</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -3763,7 +4155,7 @@
         <v>76.06</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -3786,7 +4178,7 @@
         <v>77.010000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -3809,7 +4201,7 @@
         <v>76.819999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -3832,7 +4224,7 @@
         <v>75.84</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -3855,7 +4247,7 @@
         <v>80.150000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -3878,7 +4270,7 @@
         <v>81.325000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -3901,7 +4293,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -3924,7 +4316,7 @@
         <v>78.817999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -3944,7 +4336,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -3964,7 +4356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -3984,7 +4376,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>20</v>
       </c>
@@ -4004,7 +4396,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -4024,25 +4416,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="53" spans="3:11" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="C53" s="22" t="s">
+    <row r="52" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="22" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G53" s="25"/>
-      <c r="H53" s="23"/>
+      <c r="H53" s="24"/>
       <c r="I53" s="26" t="s">
         <v>28</v>
       </c>
       <c r="J53" s="27"/>
       <c r="K53" s="28"/>
     </row>
-    <row r="54" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="16" t="s">
         <v>2</v>
       </c>
@@ -4071,7 +4463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55" s="6" t="s">
         <v>10</v>
       </c>
@@ -4098,7 +4490,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56" s="9" t="s">
         <v>10</v>
       </c>
@@ -4125,7 +4517,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57" s="9" t="s">
         <v>10</v>
       </c>
@@ -4152,7 +4544,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" s="9" t="s">
         <v>10</v>
       </c>
@@ -4179,7 +4571,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C59" s="9" t="s">
         <v>10</v>
       </c>
@@ -4206,7 +4598,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C60" s="9" t="s">
         <v>10</v>
       </c>
@@ -4233,7 +4625,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="11" t="s">
         <v>10</v>
       </c>
@@ -4260,7 +4652,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62" s="6" t="s">
         <v>11</v>
       </c>
@@ -4287,7 +4679,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="9" t="s">
         <v>11</v>
       </c>
@@ -4314,7 +4706,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64" s="9" t="s">
         <v>11</v>
       </c>
@@ -4341,7 +4733,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65" s="9" t="s">
         <v>11</v>
       </c>
@@ -4368,7 +4760,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66" s="9" t="s">
         <v>11</v>
       </c>
@@ -4395,7 +4787,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C67" s="9" t="s">
         <v>11</v>
       </c>
@@ -4422,7 +4814,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="11" t="s">
         <v>11</v>
       </c>
@@ -4449,7 +4841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69" s="20" t="s">
         <v>12</v>
       </c>
@@ -4476,7 +4868,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70" s="9" t="s">
         <v>12</v>
       </c>
@@ -4503,7 +4895,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71" s="9" t="s">
         <v>12</v>
       </c>
@@ -4530,7 +4922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72" s="9" t="s">
         <v>12</v>
       </c>
@@ -4557,7 +4949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73" s="9" t="s">
         <v>12</v>
       </c>
@@ -4584,7 +4976,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74" s="9" t="s">
         <v>12</v>
       </c>
@@ -4611,7 +5003,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="11" t="s">
         <v>12</v>
       </c>
@@ -4658,18 +5050,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8729A61D-97FE-4E17-BE5D-4AD4726A2D83}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.47265625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.80859375" style="2"/>
+    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4683,7 +5075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4697,7 +5089,7 @@
         <v>80.119</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4711,7 +5103,7 @@
         <v>80.119</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -4725,7 +5117,7 @@
         <v>80.063000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4739,7 +5131,7 @@
         <v>81.308999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4753,7 +5145,7 @@
         <v>81.302000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -4767,7 +5159,7 @@
         <v>80.786000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4781,7 +5173,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -4795,7 +5187,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -4809,7 +5201,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -4823,7 +5215,7 @@
         <v>84.463999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -4837,7 +5229,7 @@
         <v>84.463999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -4851,7 +5243,7 @@
         <v>82.975999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -4862,7 +5254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -4873,7 +5265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4884,7 +5276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -4895,7 +5287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -4906,7 +5298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -4917,7 +5309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -4931,7 +5323,7 @@
         <v>78.594999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -4945,7 +5337,7 @@
         <v>78.721999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -4959,7 +5351,7 @@
         <v>79.165999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -4973,7 +5365,7 @@
         <v>68.524000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -4987,7 +5379,7 @@
         <v>66.635000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -5001,7 +5393,7 @@
         <v>71.578999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -5015,7 +5407,7 @@
         <v>78.908000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -5029,7 +5421,7 @@
         <v>78.965999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -5043,7 +5435,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -5057,7 +5449,7 @@
         <v>79.44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -5071,7 +5463,7 @@
         <v>80.082999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -5085,7 +5477,7 @@
         <v>80.082999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -5099,7 +5491,7 @@
         <v>75.977999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -5113,7 +5505,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -5127,7 +5519,7 @@
         <v>76.590999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -5138,7 +5530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -5149,7 +5541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -5160,7 +5552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -5171,7 +5563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
@@ -5182,7 +5574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -5193,7 +5585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -5207,7 +5599,7 @@
         <v>80.150000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -5221,7 +5613,7 @@
         <v>81.325000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -5235,7 +5627,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -5249,7 +5641,7 @@
         <v>84.606999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -5263,7 +5655,7 @@
         <v>78.817999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -5277,7 +5669,7 @@
         <v>86.566000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>

--- a/Documents/results.xlsx
+++ b/Documents/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\האחסון שלי\אקדמיה\האוניברסיטה העברית\קורסים\שנה ג\סמסטר ב\מבוא לבינה מלאכותית\מטלות\Final Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bnron\PycharmProjects\AI-FinalProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925B5D57-A2C5-48CE-8B39-38544E2417CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257C6100-2489-4E0D-9EC4-8B0263C5774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
+    <workbookView xWindow="3048" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Astar" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="39">
   <si>
     <t>Data set</t>
   </si>
@@ -158,6 +158,9 @@
   <si>
     <t>Legal Result Ratio</t>
   </si>
+  <si>
+    <t>Distance From Upper Bound</t>
+  </si>
 </sst>
 </file>
 
@@ -476,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -562,6 +565,87 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,22 +983,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC75BA4-E9C4-4F04-AA12-B23A0E27743F}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="2"/>
-    <col min="4" max="4" width="10.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="2"/>
-    <col min="6" max="6" width="12.796875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.37890625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.80859375" style="2"/>
+    <col min="4" max="4" width="10.09375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.80859375" style="2"/>
+    <col min="6" max="6" width="12.80859375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -934,7 +1018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -954,7 +1038,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -974,7 +1058,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -994,7 +1078,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1098,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1054,7 +1138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1094,7 +1178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1134,7 +1218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1154,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1234,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +1338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1274,7 +1358,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1294,7 +1378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1398,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1334,7 +1418,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1354,7 +1438,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1374,7 +1458,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1394,7 +1478,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1414,7 +1498,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1434,7 +1518,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1454,7 +1538,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1474,7 +1558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1494,7 +1578,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1514,7 +1598,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1534,7 +1618,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1554,7 +1638,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1574,7 +1658,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1594,7 +1678,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1614,7 +1698,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1634,7 +1718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
@@ -1674,7 +1758,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
@@ -1694,7 +1778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
@@ -1714,7 +1798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
@@ -1734,7 +1818,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
@@ -1774,7 +1858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -1794,7 +1878,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>20</v>
       </c>
@@ -1814,7 +1898,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1834,7 +1918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -1854,7 +1938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -1874,7 +1958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -1894,7 +1978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1914,7 +1998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -1934,7 +2018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -1964,34 +2048,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F0CCF9-61D8-44BF-8CE9-C17F122C5534}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R76" sqref="R76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.796875" style="2"/>
-    <col min="13" max="13" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.8984375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="10.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.94921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.09375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.09375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.37890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.37890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.09375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.80859375" style="2"/>
+    <col min="13" max="13" width="7.09375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.37890625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2017,7 +2107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +2121,8 @@
         <v>1347</v>
       </c>
       <c r="E2" s="2">
-        <f>גיליון1!P2*G2/100</f>
-        <v>19.000799999999998</v>
+        <f>גיליון1!P2</f>
+        <v>79.17</v>
       </c>
       <c r="F2" s="2">
         <f>1250/50</f>
@@ -2047,7 +2137,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2061,8 +2151,8 @@
         <v>1347</v>
       </c>
       <c r="E3" s="2">
-        <f>גיליון1!P3*G3/100</f>
-        <v>15.872</v>
+        <f>גיליון1!P3</f>
+        <v>79.36</v>
       </c>
       <c r="F3" s="2">
         <f>1940/50</f>
@@ -2076,7 +2166,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -2090,8 +2180,8 @@
         <v>1347</v>
       </c>
       <c r="E4" s="2">
-        <f>גיליון1!P4*G4/100</f>
-        <v>3.1779999999999999</v>
+        <f>גיליון1!P4</f>
+        <v>79.45</v>
       </c>
       <c r="F4" s="2">
         <f>1890/50</f>
@@ -2105,7 +2195,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2209,8 @@
         <v>1347</v>
       </c>
       <c r="E5" s="2">
-        <f>גיליון1!P5*G5/100</f>
-        <v>68.668800000000005</v>
+        <f>גיליון1!P5</f>
+        <v>74.64</v>
       </c>
       <c r="F5" s="2">
         <f>4100/50</f>
@@ -2134,7 +2224,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -2148,8 +2238,8 @@
         <v>1347</v>
       </c>
       <c r="E6" s="2">
-        <f>גיליון1!P6*G6/100</f>
-        <v>43.227399999999996</v>
+        <f>גיליון1!P6</f>
+        <v>74.53</v>
       </c>
       <c r="F6" s="2">
         <f>4650/50</f>
@@ -2163,7 +2253,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -2177,8 +2267,8 @@
         <v>1347</v>
       </c>
       <c r="E7" s="2">
-        <f>גיליון1!P7*G7/100</f>
-        <v>28.534200000000002</v>
+        <f>גיליון1!P7</f>
+        <v>75.09</v>
       </c>
       <c r="F7" s="2">
         <f>2370/50</f>
@@ -2192,7 +2282,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2296,8 @@
         <v>1347</v>
       </c>
       <c r="E8" s="2">
-        <f>גיליון1!P8*G8/100</f>
-        <v>42.6708</v>
+        <f>גיליון1!P8</f>
+        <v>79.02</v>
       </c>
       <c r="F8" s="2">
         <f>850/50</f>
@@ -2221,7 +2311,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -2235,8 +2325,8 @@
         <v>1347</v>
       </c>
       <c r="E9" s="2">
-        <f>גיליון1!P9*G9/100</f>
-        <v>47.46</v>
+        <f>גיליון1!P9</f>
+        <v>79.099999999999994</v>
       </c>
       <c r="F9" s="2">
         <f>2070/50</f>
@@ -2250,7 +2340,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2264,8 +2354,8 @@
         <v>1347</v>
       </c>
       <c r="E10" s="2">
-        <f>גיליון1!P10*G10/100</f>
-        <v>25.251199999999997</v>
+        <f>גיליון1!P10</f>
+        <v>78.91</v>
       </c>
       <c r="F10" s="2">
         <f>1980/50</f>
@@ -2279,7 +2369,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2383,8 @@
         <v>1347</v>
       </c>
       <c r="E11" s="2">
-        <f>גיליון1!P11*G11/100</f>
-        <v>52.128799999999998</v>
+        <f>גיליון1!P11</f>
+        <v>76.66</v>
       </c>
       <c r="F11" s="2">
         <f>1550/50</f>
@@ -2308,7 +2398,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -2322,8 +2412,8 @@
         <v>1347</v>
       </c>
       <c r="E12" s="2">
-        <f>גיליון1!P12*G12/100</f>
-        <v>41.526000000000003</v>
+        <f>גיליון1!P12</f>
+        <v>76.900000000000006</v>
       </c>
       <c r="F12" s="2">
         <f>1000/50</f>
@@ -2337,7 +2427,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -2351,8 +2441,8 @@
         <v>1347</v>
       </c>
       <c r="E13" s="2">
-        <f>גיליון1!P13*G13/100</f>
-        <v>7.73</v>
+        <f>גיליון1!P13</f>
+        <v>77.3</v>
       </c>
       <c r="F13" s="2">
         <f>1920/50</f>
@@ -2366,7 +2456,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -2380,8 +2470,8 @@
         <v>13</v>
       </c>
       <c r="E14" s="2">
-        <f>גיליון1!P14*G14/100</f>
-        <v>26.914400000000001</v>
+        <f>גיליון1!P14</f>
+        <v>79.16</v>
       </c>
       <c r="F14" s="2">
         <f>15/50</f>
@@ -2395,7 +2485,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2409,8 +2499,8 @@
         <v>12</v>
       </c>
       <c r="E15" s="2">
-        <f>גיליון1!P15*G15/100</f>
-        <v>14.277599999999998</v>
+        <f>גיליון1!P15</f>
+        <v>79.319999999999993</v>
       </c>
       <c r="F15" s="2">
         <f>12/50</f>
@@ -2424,7 +2514,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2438,8 +2528,8 @@
         <v>12</v>
       </c>
       <c r="E16" s="2">
-        <f>גיליון1!P16*G16/100</f>
-        <v>1.5806</v>
+        <f>גיליון1!P16</f>
+        <v>79.03</v>
       </c>
       <c r="F16" s="2">
         <f>16/50</f>
@@ -2453,7 +2543,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2467,8 +2557,8 @@
         <v>14</v>
       </c>
       <c r="E17" s="2">
-        <f>גיליון1!P17*G17/100</f>
-        <v>35.520000000000003</v>
+        <f>גיליון1!P17</f>
+        <v>74</v>
       </c>
       <c r="F17" s="2">
         <f>17/50</f>
@@ -2482,7 +2572,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -2496,8 +2586,8 @@
         <v>12</v>
       </c>
       <c r="E18" s="2">
-        <f>גיליון1!P18*G18/100</f>
-        <v>19.336200000000002</v>
+        <f>גיליון1!P18</f>
+        <v>74.37</v>
       </c>
       <c r="F18" s="2">
         <f>14/50</f>
@@ -2511,7 +2601,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -2525,8 +2615,8 @@
         <v>9</v>
       </c>
       <c r="E19" s="2">
-        <f>גיליון1!P19*G19/100</f>
-        <v>10.3796</v>
+        <f>גיליון1!P19</f>
+        <v>74.14</v>
       </c>
       <c r="F19" s="2">
         <f>10/50</f>
@@ -2540,7 +2630,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -2554,8 +2644,8 @@
         <v>14</v>
       </c>
       <c r="E20" s="2">
-        <f>גיליון1!P20*G20/100</f>
-        <v>50.521599999999999</v>
+        <f>גיליון1!P20</f>
+        <v>78.94</v>
       </c>
       <c r="F20" s="2">
         <f>17/50</f>
@@ -2569,7 +2659,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -2583,8 +2673,8 @@
         <v>14</v>
       </c>
       <c r="E21" s="2">
-        <f>גיליון1!P21*G21/100</f>
-        <v>33.175800000000002</v>
+        <f>גיליון1!P21</f>
+        <v>78.989999999999995</v>
       </c>
       <c r="F21" s="2">
         <f>17/50</f>
@@ -2598,7 +2688,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -2612,8 +2702,8 @@
         <v>15</v>
       </c>
       <c r="E22" s="2">
-        <f>גיליון1!P22*G22/100</f>
-        <v>30.168200000000002</v>
+        <f>גיליון1!P22</f>
+        <v>79.39</v>
       </c>
       <c r="F22" s="2">
         <f>18/50</f>
@@ -2627,7 +2717,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -2641,8 +2731,8 @@
         <v>15</v>
       </c>
       <c r="E23" s="2">
-        <f>גיליון1!P23*G23/100</f>
-        <v>42.8904</v>
+        <f>גיליון1!P23</f>
+        <v>76.59</v>
       </c>
       <c r="F23" s="2">
         <f>27/50</f>
@@ -2656,7 +2746,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2670,8 +2760,8 @@
         <v>14</v>
       </c>
       <c r="E24" s="2">
-        <f>גיליון1!P24*G24/100</f>
-        <v>26.088200000000001</v>
+        <f>גיליון1!P24</f>
+        <v>76.73</v>
       </c>
       <c r="F24" s="2">
         <f>23/50</f>
@@ -2685,7 +2775,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -2699,8 +2789,8 @@
         <v>12</v>
       </c>
       <c r="E25" s="2">
-        <f>גיליון1!P25*G25/100</f>
-        <v>4.6272000000000002</v>
+        <f>גיליון1!P25</f>
+        <v>77.12</v>
       </c>
       <c r="F25" s="2">
         <f>30/50</f>
@@ -2714,7 +2804,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -2728,7 +2818,7 @@
         <v>754</v>
       </c>
       <c r="E26" s="2">
-        <f>גיליון1!P26*G26/100</f>
+        <f>גיליון1!P26</f>
         <v>79.400000000000006</v>
       </c>
       <c r="F26" s="2">
@@ -2742,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -2756,7 +2846,7 @@
         <v>14409</v>
       </c>
       <c r="E27" s="2">
-        <f>גיליון1!P27*G27/100</f>
+        <f>גיליון1!P27</f>
         <v>77.510000000000005</v>
       </c>
       <c r="F27" s="2">
@@ -2770,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -2784,7 +2874,7 @@
         <v>1312</v>
       </c>
       <c r="E28" s="2">
-        <f>גיליון1!P28*G28/100</f>
+        <f>גיליון1!P28</f>
         <v>76.209999999999994</v>
       </c>
       <c r="F28" s="2">
@@ -2798,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -2812,7 +2902,7 @@
         <v>1519</v>
       </c>
       <c r="E29" s="2">
-        <f>גיליון1!P29*G29/100</f>
+        <f>גיליון1!P29</f>
         <v>74.989999999999995</v>
       </c>
       <c r="F29" s="2">
@@ -2826,7 +2916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -2840,7 +2930,7 @@
         <v>1334</v>
       </c>
       <c r="E30" s="2">
-        <f>גיליון1!P30*G30/100</f>
+        <f>גיליון1!P30</f>
         <v>74.61</v>
       </c>
       <c r="F30" s="2">
@@ -2854,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -2868,7 +2958,7 @@
         <v>1959</v>
       </c>
       <c r="E31" s="2">
-        <f>גיליון1!P31*G31/100</f>
+        <f>גיליון1!P31</f>
         <v>72.62</v>
       </c>
       <c r="F31" s="2">
@@ -2882,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2896,7 +2986,7 @@
         <v>1450</v>
       </c>
       <c r="E32" s="2">
-        <f>גיליון1!P32*G32/100</f>
+        <f>גיליון1!P32</f>
         <v>79.510000000000005</v>
       </c>
       <c r="F32" s="2">
@@ -2910,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2924,7 +3014,7 @@
         <v>3680</v>
       </c>
       <c r="E33" s="2">
-        <f>גיליון1!P33*G33/100</f>
+        <f>גיליון1!P33</f>
         <v>79.38</v>
       </c>
       <c r="F33" s="2">
@@ -2938,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2952,7 +3042,7 @@
         <v>1580</v>
       </c>
       <c r="E34" s="2">
-        <f>גיליון1!P34*G34/100</f>
+        <f>גיליון1!P34</f>
         <v>76.06</v>
       </c>
       <c r="F34" s="2">
@@ -2966,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
@@ -2980,7 +3070,7 @@
         <v>1434</v>
       </c>
       <c r="E35" s="2">
-        <f>גיליון1!P35*G35/100</f>
+        <f>גיליון1!P35</f>
         <v>77.010000000000005</v>
       </c>
       <c r="F35" s="2">
@@ -2994,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
@@ -3008,7 +3098,7 @@
         <v>1360</v>
       </c>
       <c r="E36" s="2">
-        <f>גיליון1!P36*G36/100</f>
+        <f>גיליון1!P36</f>
         <v>76.819999999999993</v>
       </c>
       <c r="F36" s="2">
@@ -3022,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
@@ -3036,7 +3126,7 @@
         <v>1980</v>
       </c>
       <c r="E37" s="2">
-        <f>גיליון1!P37*G37/100</f>
+        <f>גיליון1!P37</f>
         <v>75.84</v>
       </c>
       <c r="F37" s="2">
@@ -3050,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -3064,10 +3154,30 @@
         <v>17</v>
       </c>
       <c r="E38" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <f>גיליון1!P38</f>
+        <v>80.150000000000006</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="U38" s="25"/>
+      <c r="V38" s="24"/>
+    </row>
+    <row r="39" spans="1:22" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -3081,10 +3191,44 @@
         <v>17</v>
       </c>
       <c r="E39" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <f>גיליון1!P39</f>
+        <v>81.325000000000003</v>
+      </c>
+      <c r="L39" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="P39" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="S39" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="T39" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" s="56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -3098,10 +3242,47 @@
         <v>17</v>
       </c>
       <c r="E40" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <f>גיליון1!P40</f>
+        <v>80.233000000000004</v>
+      </c>
+      <c r="L40" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="30">
+        <v>79.17</v>
+      </c>
+      <c r="O40" s="31">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="P40" s="49">
+        <v>79.16</v>
+      </c>
+      <c r="Q40" s="30">
+        <f>E38-N40</f>
+        <v>0.98000000000000398</v>
+      </c>
+      <c r="R40" s="31">
+        <f>E38-O40</f>
+        <v>0.75</v>
+      </c>
+      <c r="S40" s="49">
+        <f xml:space="preserve"> E38-P40</f>
+        <v>0.99000000000000909</v>
+      </c>
+      <c r="T40" s="46">
+        <v>0.24</v>
+      </c>
+      <c r="U40" s="38">
+        <v>1</v>
+      </c>
+      <c r="V40" s="39">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -3115,232 +3296,439 @@
         <v>17</v>
       </c>
       <c r="E41" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-    </row>
-    <row r="47" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="8" t="s">
+        <f>גיליון1!P41</f>
+        <v>78.817999999999998</v>
+      </c>
+      <c r="L41" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="32">
+        <v>74.64</v>
+      </c>
+      <c r="O41" s="33">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="P41" s="50">
+        <v>74</v>
+      </c>
+      <c r="Q41" s="32">
+        <f>E39-N41</f>
+        <v>6.6850000000000023</v>
+      </c>
+      <c r="R41" s="33">
+        <f>E39-O41</f>
+        <v>6.335000000000008</v>
+      </c>
+      <c r="S41" s="50">
+        <f xml:space="preserve"> E39-P41</f>
+        <v>7.3250000000000028</v>
+      </c>
+      <c r="T41" s="47">
+        <v>0.92</v>
+      </c>
+      <c r="U41" s="40">
+        <v>1</v>
+      </c>
+      <c r="V41" s="41">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L42" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="32">
+        <v>79.02</v>
+      </c>
+      <c r="O42" s="33">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="P42" s="50">
+        <v>78.94</v>
+      </c>
+      <c r="Q42" s="32">
+        <f>E40-N42</f>
+        <v>1.2130000000000081</v>
+      </c>
+      <c r="R42" s="33">
+        <f>E40-O42</f>
+        <v>0.72299999999999898</v>
+      </c>
+      <c r="S42" s="50">
+        <f xml:space="preserve"> E40-P42</f>
+        <v>1.2930000000000064</v>
+      </c>
+      <c r="T42" s="47">
+        <v>0.54</v>
+      </c>
+      <c r="U42" s="40">
+        <v>1</v>
+      </c>
+      <c r="V42" s="41">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L43" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="34">
+        <v>76.66</v>
+      </c>
+      <c r="O43" s="35">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="P43" s="51">
+        <v>76.59</v>
+      </c>
+      <c r="Q43" s="34">
+        <f>E41-N43</f>
+        <v>2.1580000000000013</v>
+      </c>
+      <c r="R43" s="35">
+        <f>E41-O43</f>
+        <v>1.8079999999999927</v>
+      </c>
+      <c r="S43" s="51">
+        <f xml:space="preserve"> E41-P43</f>
+        <v>2.2279999999999944</v>
+      </c>
+      <c r="T43" s="48">
+        <v>0.68</v>
+      </c>
+      <c r="U43" s="42">
+        <v>1</v>
+      </c>
+      <c r="V43" s="43">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="N44" s="30">
+        <v>79.36</v>
+      </c>
+      <c r="O44" s="31">
+        <v>77.510000000000005</v>
+      </c>
+      <c r="P44" s="49">
+        <v>79.319999999999993</v>
+      </c>
+      <c r="Q44" s="30">
+        <f>E38-N44</f>
+        <v>0.79000000000000625</v>
+      </c>
+      <c r="R44" s="31">
+        <f>E38-O44</f>
+        <v>2.6400000000000006</v>
+      </c>
+      <c r="S44" s="49">
+        <f xml:space="preserve"> E38-P44</f>
+        <v>0.83000000000001251</v>
+      </c>
+      <c r="T44" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="U44" s="38">
+        <v>1</v>
+      </c>
+      <c r="V44" s="39">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L45" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="10" t="s">
+      <c r="N45" s="32">
+        <v>74.53</v>
+      </c>
+      <c r="O45" s="33">
+        <v>74.61</v>
+      </c>
+      <c r="P45" s="50">
+        <v>74.37</v>
+      </c>
+      <c r="Q45" s="32">
+        <f>E39-N45</f>
+        <v>6.7950000000000017</v>
+      </c>
+      <c r="R45" s="33">
+        <f>E39-O45</f>
+        <v>6.7150000000000034</v>
+      </c>
+      <c r="S45" s="50">
+        <f xml:space="preserve"> E39-P45</f>
+        <v>6.9549999999999983</v>
+      </c>
+      <c r="T45" s="47">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U45" s="40">
+        <v>1</v>
+      </c>
+      <c r="V45" s="41">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L46" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="10" t="s">
+      <c r="N46" s="32">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="O46" s="33">
+        <v>79.38</v>
+      </c>
+      <c r="P46" s="50">
+        <v>78.989999999999995</v>
+      </c>
+      <c r="Q46" s="32">
+        <f>E40-N46</f>
+        <v>1.1330000000000098</v>
+      </c>
+      <c r="R46" s="33">
+        <f>E40-O46</f>
+        <v>0.85300000000000864</v>
+      </c>
+      <c r="S46" s="50">
+        <f xml:space="preserve"> E40-P46</f>
+        <v>1.2430000000000092</v>
+      </c>
+      <c r="T46" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="U46" s="40">
+        <v>1</v>
+      </c>
+      <c r="V46" s="41">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L47" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="N47" s="34">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="O47" s="35">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="P47" s="51">
+        <v>76.73</v>
+      </c>
+      <c r="Q47" s="34">
+        <f>E41-N47</f>
+        <v>1.9179999999999922</v>
+      </c>
+      <c r="R47" s="35">
+        <f>E41-O47</f>
+        <v>1.9980000000000047</v>
+      </c>
+      <c r="S47" s="51">
+        <f xml:space="preserve"> E41-P47</f>
+        <v>2.0879999999999939</v>
+      </c>
+      <c r="T47" s="48">
+        <v>0.54</v>
+      </c>
+      <c r="U47" s="42">
+        <v>1</v>
+      </c>
+      <c r="V47" s="43">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L48" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="N48" s="36">
+        <v>79.45</v>
+      </c>
+      <c r="O48" s="37">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="P48" s="52">
+        <v>79.03</v>
+      </c>
+      <c r="Q48" s="36">
+        <f>E38-N48</f>
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="R48" s="37">
+        <f>E38-O48</f>
+        <v>3.9400000000000119</v>
+      </c>
+      <c r="S48" s="52">
+        <f xml:space="preserve"> E38-P48</f>
+        <v>1.1200000000000045</v>
+      </c>
+      <c r="T48" s="53">
+        <v>0.04</v>
+      </c>
+      <c r="U48" s="44">
+        <v>1</v>
+      </c>
+      <c r="V48" s="45">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="12:22" x14ac:dyDescent="0.45">
+      <c r="L49" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="10" t="s">
+      <c r="N49" s="32">
+        <v>75.09</v>
+      </c>
+      <c r="O49" s="33">
+        <v>72.62</v>
+      </c>
+      <c r="P49" s="50">
+        <v>74.14</v>
+      </c>
+      <c r="Q49" s="32">
+        <f>E39-N49</f>
+        <v>6.2349999999999994</v>
+      </c>
+      <c r="R49" s="33">
+        <f>E39-O49</f>
+        <v>8.7049999999999983</v>
+      </c>
+      <c r="S49" s="50">
+        <f xml:space="preserve"> E39-P49</f>
+        <v>7.1850000000000023</v>
+      </c>
+      <c r="T49" s="47">
+        <v>0.38</v>
+      </c>
+      <c r="U49" s="40">
+        <v>1</v>
+      </c>
+      <c r="V49" s="41">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="12:22" x14ac:dyDescent="0.45">
+      <c r="L50" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="13" t="s">
+      <c r="N50" s="32">
+        <v>78.91</v>
+      </c>
+      <c r="O50" s="33">
+        <v>76.06</v>
+      </c>
+      <c r="P50" s="50">
+        <v>79.39</v>
+      </c>
+      <c r="Q50" s="32">
+        <f>E40-N50</f>
+        <v>1.3230000000000075</v>
+      </c>
+      <c r="R50" s="33">
+        <f>E40-O50</f>
+        <v>4.1730000000000018</v>
+      </c>
+      <c r="S50" s="50">
+        <f xml:space="preserve"> E40-P50</f>
+        <v>0.84300000000000352</v>
+      </c>
+      <c r="T50" s="47">
+        <v>0.32</v>
+      </c>
+      <c r="U50" s="40">
+        <v>1</v>
+      </c>
+      <c r="V50" s="41">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="51" spans="12:22" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L51" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="21"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
+      <c r="N51" s="34">
+        <v>77.3</v>
+      </c>
+      <c r="O51" s="35">
+        <v>75.84</v>
+      </c>
+      <c r="P51" s="51">
+        <v>77.12</v>
+      </c>
+      <c r="Q51" s="34">
+        <f>E41-N51</f>
+        <v>1.5180000000000007</v>
+      </c>
+      <c r="R51" s="35">
+        <f>E41-O51</f>
+        <v>2.9779999999999944</v>
+      </c>
+      <c r="S51" s="51">
+        <f xml:space="preserve"> E41-P51</f>
+        <v>1.6979999999999933</v>
+      </c>
+      <c r="T51" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="U51" s="42">
+        <v>1</v>
+      </c>
+      <c r="V51" s="43">
+        <v>0.06</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H41" xr:uid="{45F0CCF9-61D8-44BF-8CE9-C17F122C5534}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Low"/>
+        <filter val="-"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="3">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
+  <mergeCells count="4">
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="Q38:S38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3351,28 +3739,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21204C8-3B02-4F4C-A3C4-0DF983CD0D88}">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView rightToLeft="1" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="G1:P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.37890625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" style="2"/>
-    <col min="9" max="9" width="8.796875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.796875" style="2"/>
-    <col min="12" max="12" width="5.3984375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="2"/>
+    <col min="6" max="6" width="13.47265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.80859375" style="2"/>
+    <col min="9" max="9" width="8.80859375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.80859375" style="2"/>
+    <col min="12" max="12" width="5.37890625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.80859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3396,7 +3784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3419,7 +3807,7 @@
         <v>79.17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3830,7 @@
         <v>79.36</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3465,7 +3853,7 @@
         <v>79.45</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3488,7 +3876,7 @@
         <v>74.64</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3511,7 +3899,7 @@
         <v>74.53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3534,7 +3922,7 @@
         <v>75.09</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3557,7 +3945,7 @@
         <v>79.02</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3580,7 +3968,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3603,7 +3991,7 @@
         <v>78.91</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3626,7 +4014,7 @@
         <v>76.66</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -3649,7 +4037,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -3672,7 +4060,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3695,7 +4083,7 @@
         <v>79.16</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3718,7 +4106,7 @@
         <v>79.319999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -3741,7 +4129,7 @@
         <v>79.03</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3764,7 +4152,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -3787,7 +4175,7 @@
         <v>74.37</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -3810,7 +4198,7 @@
         <v>74.14</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -3833,7 +4221,7 @@
         <v>78.94</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -3856,7 +4244,7 @@
         <v>78.989999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -3879,7 +4267,7 @@
         <v>79.39</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3902,7 +4290,7 @@
         <v>76.59</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3925,7 +4313,7 @@
         <v>76.73</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -3948,7 +4336,7 @@
         <v>77.12</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3971,7 +4359,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3994,7 +4382,7 @@
         <v>77.510000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -4017,7 +4405,7 @@
         <v>76.209999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -4040,7 +4428,7 @@
         <v>74.989999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -4063,7 +4451,7 @@
         <v>74.61</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -4086,7 +4474,7 @@
         <v>72.62</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -4109,7 +4497,7 @@
         <v>79.510000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -4132,7 +4520,7 @@
         <v>79.38</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -4155,7 +4543,7 @@
         <v>76.06</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -4178,7 +4566,7 @@
         <v>77.010000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -4201,7 +4589,7 @@
         <v>76.819999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -4224,7 +4612,7 @@
         <v>75.84</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -4247,7 +4635,7 @@
         <v>80.150000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -4270,7 +4658,7 @@
         <v>81.325000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -4293,7 +4681,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -4316,7 +4704,7 @@
         <v>78.817999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -4336,7 +4724,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -4356,7 +4744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -4376,7 +4764,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>20</v>
       </c>
@@ -4396,7 +4784,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -4416,8 +4804,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="53" spans="3:11" ht="14.1" x14ac:dyDescent="0.45">
       <c r="C53" s="23" t="s">
         <v>24</v>
       </c>
@@ -4434,7 +4822,7 @@
       <c r="J53" s="27"/>
       <c r="K53" s="28"/>
     </row>
-    <row r="54" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C54" s="16" t="s">
         <v>2</v>
       </c>
@@ -4463,7 +4851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C55" s="6" t="s">
         <v>10</v>
       </c>
@@ -4490,7 +4878,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C56" s="9" t="s">
         <v>10</v>
       </c>
@@ -4517,7 +4905,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C57" s="9" t="s">
         <v>10</v>
       </c>
@@ -4544,7 +4932,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C58" s="9" t="s">
         <v>10</v>
       </c>
@@ -4571,7 +4959,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C59" s="9" t="s">
         <v>10</v>
       </c>
@@ -4598,7 +4986,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C60" s="9" t="s">
         <v>10</v>
       </c>
@@ -4625,7 +5013,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C61" s="11" t="s">
         <v>10</v>
       </c>
@@ -4652,7 +5040,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C62" s="6" t="s">
         <v>11</v>
       </c>
@@ -4679,7 +5067,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C63" s="9" t="s">
         <v>11</v>
       </c>
@@ -4706,7 +5094,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C64" s="9" t="s">
         <v>11</v>
       </c>
@@ -4733,7 +5121,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C65" s="9" t="s">
         <v>11</v>
       </c>
@@ -4760,7 +5148,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C66" s="9" t="s">
         <v>11</v>
       </c>
@@ -4787,7 +5175,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C67" s="9" t="s">
         <v>11</v>
       </c>
@@ -4814,7 +5202,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C68" s="11" t="s">
         <v>11</v>
       </c>
@@ -4841,7 +5229,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C69" s="20" t="s">
         <v>12</v>
       </c>
@@ -4868,7 +5256,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C70" s="9" t="s">
         <v>12</v>
       </c>
@@ -4895,7 +5283,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C71" s="9" t="s">
         <v>12</v>
       </c>
@@ -4922,7 +5310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C72" s="9" t="s">
         <v>12</v>
       </c>
@@ -4949,7 +5337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C73" s="9" t="s">
         <v>12</v>
       </c>
@@ -4976,7 +5364,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C74" s="9" t="s">
         <v>12</v>
       </c>
@@ -5003,7 +5391,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C75" s="11" t="s">
         <v>12</v>
       </c>
@@ -5050,18 +5438,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8729A61D-97FE-4E17-BE5D-4AD4726A2D83}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.47265625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5075,7 +5463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5089,7 +5477,7 @@
         <v>80.119</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -5103,7 +5491,7 @@
         <v>80.119</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -5117,7 +5505,7 @@
         <v>80.063000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -5131,7 +5519,7 @@
         <v>81.308999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -5145,7 +5533,7 @@
         <v>81.302000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5159,7 +5547,7 @@
         <v>80.786000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5173,7 +5561,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -5187,7 +5575,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -5201,7 +5589,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -5215,7 +5603,7 @@
         <v>84.463999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -5229,7 +5617,7 @@
         <v>84.463999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -5243,7 +5631,7 @@
         <v>82.975999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -5254,7 +5642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -5265,7 +5653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -5276,7 +5664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -5287,7 +5675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -5298,7 +5686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -5309,7 +5697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -5323,7 +5711,7 @@
         <v>78.594999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -5337,7 +5725,7 @@
         <v>78.721999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -5351,7 +5739,7 @@
         <v>79.165999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -5365,7 +5753,7 @@
         <v>68.524000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -5379,7 +5767,7 @@
         <v>66.635000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -5393,7 +5781,7 @@
         <v>71.578999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -5407,7 +5795,7 @@
         <v>78.908000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -5421,7 +5809,7 @@
         <v>78.965999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -5435,7 +5823,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -5449,7 +5837,7 @@
         <v>79.44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -5463,7 +5851,7 @@
         <v>80.082999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -5477,7 +5865,7 @@
         <v>80.082999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -5491,7 +5879,7 @@
         <v>75.977999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -5505,7 +5893,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -5519,7 +5907,7 @@
         <v>76.590999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -5530,7 +5918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -5541,7 +5929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -5552,7 +5940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -5563,7 +5951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
@@ -5574,7 +5962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -5585,7 +5973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -5599,7 +5987,7 @@
         <v>80.150000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -5613,7 +6001,7 @@
         <v>81.325000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -5627,7 +6015,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -5641,7 +6029,7 @@
         <v>84.606999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -5655,7 +6043,7 @@
         <v>78.817999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -5669,7 +6057,7 @@
         <v>86.566000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
